--- a/MySQL/02-日志和物理文件.xlsx
+++ b/MySQL/02-日志和物理文件.xlsx
@@ -25,6 +25,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>文件以</t>
     </r>
     <r>
@@ -55,6 +63,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>表数据以</t>
     </r>
     <r>
@@ -727,12 +743,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,7 +823,7 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -821,8 +837,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,21 +949,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -860,30 +958,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,68 +982,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,187 +1028,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,76 +1222,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1290,8 +1249,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1303,10 +1327,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1315,137 +1339,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1458,9 +1482,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1503,8 +1524,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2197,8 +2218,8 @@
   <sheetPr/>
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="25" customHeight="1"/>
@@ -2229,15 +2250,15 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -2246,581 +2267,581 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:11">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" customHeight="1" spans="2:11">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" customHeight="1" spans="2:11">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" customHeight="1" spans="2:11">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="11" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" customHeight="1" spans="2:11">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="2:11">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="11" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" customHeight="1" spans="2:11">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" customHeight="1" spans="2:11">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="11" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" customHeight="1" spans="1:11">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" customHeight="1" spans="2:11">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" customHeight="1" spans="2:11">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" customHeight="1" spans="6:11">
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" customHeight="1" spans="2:11">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" customHeight="1" spans="6:11">
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" customHeight="1" spans="6:11">
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" customHeight="1" spans="2:11">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" customHeight="1" spans="2:11">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" customHeight="1" spans="2:11">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" customHeight="1" spans="2:11">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" customHeight="1" spans="7:11">
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" customHeight="1" spans="2:11">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
     </row>
     <row r="27" customHeight="1" spans="2:11">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="31" customHeight="1" spans="1:11">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" customHeight="1" spans="2:5">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" customHeight="1" spans="2:6">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" customHeight="1" spans="2:11">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="13" t="s">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
     </row>
     <row r="35" customHeight="1" spans="2:11">
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
     </row>
     <row r="36" customHeight="1" spans="2:11">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
     </row>
     <row r="37" customHeight="1" spans="2:6">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="42" customHeight="1" spans="2:6">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="51" customHeight="1" spans="2:6">
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="56" customHeight="1" spans="2:6">
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="58" customHeight="1" spans="2:6">
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" customHeight="1" spans="2:6">
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" customHeight="1" spans="2:6">
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
     </row>
     <row r="61" customHeight="1" spans="2:11">
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
     </row>
     <row r="62" customHeight="1" spans="2:6">
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" customHeight="1" spans="1:11">
       <c r="A63" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
     </row>
     <row r="64" customHeight="1" spans="2:6">
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" customHeight="1" spans="1:11">
       <c r="A65" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
     </row>
     <row r="66" customHeight="1" spans="2:11">
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
     </row>
     <row r="67" customHeight="1" spans="2:11">
-      <c r="B67" s="17"/>
-      <c r="C67" s="19" t="s">
+      <c r="B67" s="18"/>
+      <c r="C67" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
     </row>
     <row r="68" customHeight="1" spans="2:11">
-      <c r="B68" s="17"/>
-      <c r="C68" s="19" t="s">
+      <c r="B68" s="18"/>
+      <c r="C68" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
     </row>
     <row r="69" customHeight="1" spans="2:6">
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
     </row>
     <row r="70" customHeight="1" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="34">
